--- a/proVidioETG/testDate/GiftCertificateCodes.xlsx
+++ b/proVidioETG/testDate/GiftCertificateCodes.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t xml:space="preserve">Codes</t>
   </si>
@@ -110,31 +110,22 @@
     <t xml:space="preserve">codes</t>
   </si>
   <si>
-    <t xml:space="preserve">OSZITLVRRPIITTAA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZLGHSJJQFDMQGWYQ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JMTMKLKFVLZKJMSJ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FYKWSLFHLCAOHADY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIWTWDQGMGCPYLKQ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JMMWDZMZJWHMLCJT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CWFSORQWDTWFKDYY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GKDFRMMLTSOPZSQP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPACKMITQCGHPFVJ </t>
+    <t xml:space="preserve">LZOKCKSKITLTMZPH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAHZTYLVDRPJLSRR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLSJSZWQDIYJRCTH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WOODRMOLGSQHYYGF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZYAJYSVDTCRCTWYD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOJOKYYVHQLMIJFW </t>
   </si>
 </sst>
 </file>
@@ -433,10 +424,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -479,24 +470,6 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0"/>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/proVidioETG/testDate/GiftCertificateCodes.xlsx
+++ b/proVidioETG/testDate/GiftCertificateCodes.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t xml:space="preserve">Codes</t>
   </si>
@@ -113,13 +113,22 @@
     <t xml:space="preserve">LZOKCKSKITLTMZPH </t>
   </si>
   <si>
-    <t xml:space="preserve">LAHZTYLVDRPJLSRR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLSJSZWQDIYJRCTH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WOODRMOLGSQHYYGF </t>
+    <t xml:space="preserve">LAHZTYLVDRPJLSRR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OMVVTHALOOQOSFSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TVQLWACCZLARHCKO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTCTWPLVZHPPWAFP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TZLAJCTOKSPOYYDF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSZYIHDVIMJMHYLD </t>
   </si>
   <si>
     <t xml:space="preserve">ZYAJYSVDTCRCTWYD </t>
@@ -135,7 +144,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -170,6 +179,12 @@
       <name val="Consolas"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -231,7 +246,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -424,10 +439,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -441,33 +456,53 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+    <row r="4" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/proVidioETG/testDate/GiftCertificateCodes.xlsx
+++ b/proVidioETG/testDate/GiftCertificateCodes.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t xml:space="preserve">Codes</t>
   </si>
@@ -113,28 +113,55 @@
     <t xml:space="preserve">LZOKCKSKITLTMZPH </t>
   </si>
   <si>
-    <t xml:space="preserve">LAHZTYLVDRPJLSRR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> OMVVTHALOOQOSFSC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TVQLWACCZLARHCKO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTCTWPLVZHPPWAFP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TZLAJCTOKSPOYYDF </t>
+    <t xml:space="preserve">KOSGYMSSFYPCYWOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LQOCOOOFTAIDSHKI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZZZGODTJQZYMOJSC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFKGVCSMTIGAJPVD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KVJOKCKHKAPFPYWP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRIFAQDZCGSIDFMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOJOKYYVHQLMIJFW </t>
   </si>
   <si>
     <t xml:space="preserve">FSZYIHDVIMJMHYLD </t>
   </si>
   <si>
-    <t xml:space="preserve">ZYAJYSVDTCRCTWYD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">YOJOKYYVHQLMIJFW </t>
+    <t xml:space="preserve">LQHZDFQRHAKAMGHC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SJGYSIVIODHSPDOJ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LQKDYKARZKYTKSZY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DQLCKSFTYIYQVOLP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VYCSTQKCMWTWMPQR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IHZQRCKDZPKIWMMJ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIDHDYRQMVIMCQIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTPFHAWJWPHPJTZL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KTCAKAPJKZDLOARK </t>
   </si>
 </sst>
 </file>
@@ -144,7 +171,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -180,12 +207,6 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -246,7 +267,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -439,10 +460,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -466,43 +487,98 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>36</v>
+      <c r="A9" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/proVidioETG/testDate/GiftCertificateCodes.xlsx
+++ b/proVidioETG/testDate/GiftCertificateCodes.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t xml:space="preserve">Codes</t>
   </si>
@@ -113,15 +113,6 @@
     <t xml:space="preserve">LZOKCKSKITLTMZPH </t>
   </si>
   <si>
-    <t xml:space="preserve">KOSGYMSSFYPCYWOS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LQOCOOOFTAIDSHKI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZZZGODTJQZYMOJSC </t>
-  </si>
-  <si>
     <t xml:space="preserve">MFKGVCSMTIGAJPVD </t>
   </si>
   <si>
@@ -129,12 +120,6 @@
   </si>
   <si>
     <t xml:space="preserve">IRIFAQDZCGSIDFMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YOJOKYYVHQLMIJFW </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSZYIHDVIMJMHYLD </t>
   </si>
   <si>
     <t xml:space="preserve">LQHZDFQRHAKAMGHC </t>
@@ -250,7 +235,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -265,10 +250,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -460,10 +441,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -481,104 +462,79 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/proVidioETG/testDate/GiftCertificateCodes.xlsx
+++ b/proVidioETG/testDate/GiftCertificateCodes.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t xml:space="preserve">Codes</t>
   </si>
@@ -107,46 +107,34 @@
     <t xml:space="preserve">ISFJISCJPWMJDVRT</t>
   </si>
   <si>
+    <t xml:space="preserve">AHDDVYKAILHDSYGJ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LZOKCKSKITLTMZPH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QFCJAITZWDGLOMDZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JTKKIPSPCLGRJWID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JHWFFLDAHOLGQZAC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JYCPOGMIWMYDIKVR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IZHCJSQMDFFWGSQS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KKPHJLHQCWJSRHIC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SYIKSCOOVHYCCFIF </t>
+  </si>
+  <si>
     <t xml:space="preserve">codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LZOKCKSKITLTMZPH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFKGVCSMTIGAJPVD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KVJOKCKHKAPFPYWP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IRIFAQDZCGSIDFMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LQHZDFQRHAKAMGHC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SJGYSIVIODHSPDOJ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LQKDYKARZKYTKSZY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DQLCKSFTYIYQVOLP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VYCSTQKCMWTWMPQR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IHZQRCKDZPKIWMMJ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIDHDYRQMVIMCQIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTPFHAWJWPHPJTZL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KTCAKAPJKZDLOARK </t>
   </si>
 </sst>
 </file>
@@ -235,7 +223,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -250,6 +238,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -269,10 +261,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:A45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -423,6 +415,61 @@
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -444,98 +491,70 @@
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="A5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="A6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="A7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="A8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="A9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="A10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="A11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="A12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="A13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="A14" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="A16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="A17" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/proVidioETG/testDate/GiftCertificateCodes.xlsx
+++ b/proVidioETG/testDate/GiftCertificateCodes.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t xml:space="preserve">Codes</t>
   </si>
@@ -135,6 +135,39 @@
   </si>
   <si>
     <t xml:space="preserve">codes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VRFPHTHTHFJKFJJI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAQDPQGCZMDHHWPY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IIYWYDTLGWDCGFOT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCJTMCZOQPHYVTAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QKVOHQRGKYHRCSPM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCAYPZSQHCDPWWYV </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FZOMDCTPQJTDOOSR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKRSPJCMVHYLSVAK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QFLLDTMQGMGZZQLY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRMAGYLHLJKYQCMY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ODZGTATFYAWWMKSO </t>
   </si>
 </sst>
 </file>
@@ -488,10 +521,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -507,54 +540,78 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
+      <c r="A5" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4"/>
+      <c r="A8" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4"/>
+      <c r="A9" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4"/>
+      <c r="A10" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4"/>
+      <c r="A11" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0"/>
+      <c r="A12" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0"/>
+      <c r="A13" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0"/>
+      <c r="A14" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2"/>
+      <c r="A16" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/proVidioETG/testDate/GiftCertificateCodes.xlsx
+++ b/proVidioETG/testDate/GiftCertificateCodes.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GC_Codes1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Combined code" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="GC_Codes" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t xml:space="preserve">Codes</t>
   </si>
@@ -50,94 +50,31 @@
     <t xml:space="preserve">GQHOQWZCQWOOTFFL</t>
   </si>
   <si>
-    <t xml:space="preserve">DLOFIGOOCVCFZRGC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LISSZKYHGDMPKRMC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMIMTOZAPCDVMDCY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RDQDOMKGVJYLRITM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WIPHHGHKVOOSKPZG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RTISIFKOSZWHCMVK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIGRWACDMZGTPMZH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLAQRZTIFDORIMIV </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JDZLMOLYVAKLYSTD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">QTRYKWMCZDIHOOCW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OQZMMYCLLLMTWZDY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFQOQICVOJHGMVPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ILSYPSFRLIVYTPPW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JJODPLQPZTIROSQC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FTVQIYMMSDIRSVPT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDSIQRTPSCSOTCCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LVLOPMHLMWZQIQFA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STILWAKOAYHFYFLW </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISFJISCJPWMJDVRT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AHDDVYKAILHDSYGJ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LZOKCKSKITLTMZPH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">QFCJAITZWDGLOMDZ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JTKKIPSPCLGRJWID </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JHWFFLDAHOLGQZAC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JYCPOGMIWMYDIKVR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IZHCJSQMDFFWGSQS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KKPHJLHQCWJSRHIC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SYIKSCOOVHYCCFIF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VRFPHTHTHFJKFJJI </t>
+    <t xml:space="preserve">code for combined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OVMGKVVIWLGAQIOM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMFADIIGSDWWHQGW </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCFJCOHPZJCLCJMY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDOKTGCOVOLJJRZL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOVWGJJKVPAPIOAD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">codes for  only Gc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YCJSQQWRGIAOCCVA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTTMVOPISPFYAOMH </t>
   </si>
   <si>
     <t xml:space="preserve">HAQDPQGCZMDHHWPY </t>
@@ -297,7 +234,7 @@
   <dimension ref="A1:A45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -356,154 +293,80 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A19" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A26" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A30" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="A35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="A36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="A37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="A38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="A39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="A40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="A41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="A42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="A43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="A44" s="2"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="A45" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -521,96 +384,126 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="31.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>43</v>
+      <c r="A7" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>44</v>
+      <c r="A8" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>41</v>
+      <c r="A9" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>42</v>
+      <c r="A10" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>44</v>
+      <c r="A11" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
+      <c r="A12" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>45</v>
+      <c r="A13" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>46</v>
+      <c r="A14" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>47</v>
+      <c r="A15" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>48</v>
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
